--- a/QC files/photovisit_rating.xlsx
+++ b/QC files/photovisit_rating.xlsx
@@ -11408,7 +11408,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
